--- a/images/tableau_de_synthèse.xlsx
+++ b/images/tableau_de_synthèse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\portfolio_khalil_ladjili\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FDE6D97-6EAA-4AE9-A6EA-C7C26F97F1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0A8F19-CB45-4FC2-90FB-CF12EB010222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphique2" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="59">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t xml:space="preserve">Creation d'un site ecommerce sous Shopify </t>
+  </si>
+  <si>
+    <t>10/01/22-18/02/23</t>
   </si>
 </sst>
 </file>
@@ -2871,8 +2874,8 @@
   </sheetPr>
   <dimension ref="A1:AQ85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4621,7 +4624,9 @@
       <c r="A37" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="28"/>
+      <c r="B37" s="28" t="s">
+        <v>58</v>
+      </c>
       <c r="C37" s="28"/>
       <c r="D37" s="32" t="s">
         <v>51</v>
